--- a/Magistracy1Stats/Приложение 3.xlsx
+++ b/Magistracy1Stats/Приложение 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\крендель\Desktop\MagicCode\Magistracy1Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B229CED7-CA30-40CE-9D54-8BC13957D00A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE364182-952E-4EE8-B874-6383D89379A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="390" windowWidth="23700" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,30 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>X1</t>
-  </si>
-  <si>
-    <t>Х2</t>
   </si>
   <si>
     <t>X3</t>
   </si>
   <si>
-    <t>Х4</t>
+    <t>X2</t>
   </si>
   <si>
-    <t>Х5</t>
+    <t>X4</t>
   </si>
   <si>
-    <t>Х6</t>
+    <t>X5</t>
   </si>
   <si>
-    <t>Х7</t>
+    <t>X6</t>
   </si>
   <si>
-    <t>-72S.300</t>
+    <t>X7</t>
   </si>
 </sst>
 </file>
@@ -382,8 +379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -8591,8 +8588,8 @@
     </row>
     <row r="104" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>7</v>
+      <c r="B104" s="1">
+        <v>-72.3</v>
       </c>
       <c r="C104" s="1">
         <v>5448</v>
